--- a/Deep Learning/Code/Experiment/IndoorLocalization/data.xlsx
+++ b/Deep Learning/Code/Experiment/IndoorLocalization/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="A2 305" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +112,12 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,11 +142,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -561,7 +570,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -1225,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C56"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -1885,15 +1894,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1903,8 +1912,11 @@
       <c r="C1" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1914,8 +1926,11 @@
       <c r="C2" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1925,8 +1940,11 @@
       <c r="C3" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1935,6 +1953,9 @@
       </c>
       <c r="C4" s="1">
         <v>6</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1945,15 +1966,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1963,8 +1984,11 @@
       <c r="C1" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D1" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -1974,8 +1998,11 @@
       <c r="C2" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D2" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -1985,8 +2012,11 @@
       <c r="C3" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D3" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -1996,8 +2026,11 @@
       <c r="C4" s="1">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D4" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -2007,8 +2040,11 @@
       <c r="C5" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D5" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -2018,8 +2054,11 @@
       <c r="C6" s="1">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D6" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -2029,8 +2068,11 @@
       <c r="C7" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D7" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -2040,8 +2082,11 @@
       <c r="C8" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D8" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -2051,8 +2096,11 @@
       <c r="C9" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D9" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -2062,8 +2110,11 @@
       <c r="C10" s="1">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D10" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -2073,8 +2124,11 @@
       <c r="C11" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D11" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -2084,8 +2138,11 @@
       <c r="C12" s="1">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D12" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -2095,8 +2152,11 @@
       <c r="C13" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D13" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -2106,8 +2166,11 @@
       <c r="C14" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D14" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -2117,8 +2180,11 @@
       <c r="C15" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D15" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -2128,8 +2194,11 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D16" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -2139,8 +2208,11 @@
       <c r="C17" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D17" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -2150,8 +2222,11 @@
       <c r="C18" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D18" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -2161,8 +2236,11 @@
       <c r="C19" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D19" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -2172,8 +2250,11 @@
       <c r="C20" s="1">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D20" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -2183,8 +2264,11 @@
       <c r="C21" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D21" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -2194,8 +2278,11 @@
       <c r="C22" s="1">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D22" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -2205,8 +2292,11 @@
       <c r="C23" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D23" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -2216,8 +2306,11 @@
       <c r="C24" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D24" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -2227,8 +2320,11 @@
       <c r="C25" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D25" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -2238,8 +2334,11 @@
       <c r="C26" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D26" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -2249,8 +2348,11 @@
       <c r="C27" s="1">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D27" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -2260,8 +2362,11 @@
       <c r="C28" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D28" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -2271,8 +2376,11 @@
       <c r="C29" s="1">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D29" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -2282,8 +2390,11 @@
       <c r="C30" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D30" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -2293,8 +2404,11 @@
       <c r="C31" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D31" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -2304,8 +2418,11 @@
       <c r="C32" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D32" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -2315,8 +2432,11 @@
       <c r="C33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D33" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2326,8 +2446,11 @@
       <c r="C34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D34" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -2337,8 +2460,11 @@
       <c r="C35" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D35" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -2348,8 +2474,11 @@
       <c r="C36" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D36" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -2359,8 +2488,11 @@
       <c r="C37" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D37" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -2370,8 +2502,11 @@
       <c r="C38" s="1">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D38" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -2381,8 +2516,11 @@
       <c r="C39" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D39" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -2392,8 +2530,11 @@
       <c r="C40" s="1">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D40" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -2403,8 +2544,11 @@
       <c r="C41" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D41" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -2414,8 +2558,11 @@
       <c r="C42" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D42" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -2425,8 +2572,11 @@
       <c r="C43" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D43" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -2436,8 +2586,11 @@
       <c r="C44" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D44" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -2447,8 +2600,11 @@
       <c r="C45" s="1">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D45" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -2458,8 +2614,11 @@
       <c r="C46" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D46" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -2469,8 +2628,11 @@
       <c r="C47" s="1">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D47" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -2480,8 +2642,11 @@
       <c r="C48" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D48" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -2491,8 +2656,11 @@
       <c r="C49" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D49" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -2501,6 +2669,9 @@
       </c>
       <c r="C50" s="1">
         <v>2</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -2511,15 +2682,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2529,8 +2700,11 @@
       <c r="C1" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2540,8 +2714,11 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2551,8 +2728,11 @@
       <c r="C3" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2561,6 +2741,9 @@
       </c>
       <c r="C4" s="1">
         <v>2.1</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2571,15 +2754,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C50"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -2589,8 +2772,11 @@
       <c r="C1" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D1" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -2600,8 +2786,11 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D2" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -2611,8 +2800,11 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D3" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -2622,8 +2814,11 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D4" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -2633,8 +2828,11 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D5" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -2644,8 +2842,11 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D6" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -2655,8 +2856,11 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D7" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -2666,8 +2870,11 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D8" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -2677,8 +2884,11 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D9" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -2688,8 +2898,11 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D10" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -2699,8 +2912,11 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D11" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -2710,8 +2926,11 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D12" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -2721,8 +2940,11 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D13" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -2732,8 +2954,11 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D14" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -2743,8 +2968,11 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D15" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -2754,8 +2982,11 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D16" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -2765,8 +2996,11 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D17" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -2776,8 +3010,11 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D18" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -2787,8 +3024,11 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D19" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -2798,8 +3038,11 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D20" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -2809,8 +3052,11 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D21" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -2820,8 +3066,11 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D22" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -2831,8 +3080,11 @@
       <c r="C23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D23" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -2842,8 +3094,11 @@
       <c r="C24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D24" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -2853,8 +3108,11 @@
       <c r="C25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D25" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -2864,8 +3122,11 @@
       <c r="C26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D26" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -2875,8 +3136,11 @@
       <c r="C27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D27" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -2886,8 +3150,11 @@
       <c r="C28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D28" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -2897,8 +3164,11 @@
       <c r="C29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D29" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -2908,8 +3178,11 @@
       <c r="C30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D30" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -2919,8 +3192,11 @@
       <c r="C31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D31" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -2930,8 +3206,11 @@
       <c r="C32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D32" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -2941,8 +3220,11 @@
       <c r="C33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D33" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2952,8 +3234,11 @@
       <c r="C34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D34" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -2963,8 +3248,11 @@
       <c r="C35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D35" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -2974,8 +3262,11 @@
       <c r="C36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D36" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -2985,8 +3276,11 @@
       <c r="C37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D37" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -2996,8 +3290,11 @@
       <c r="C38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D38" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -3007,8 +3304,11 @@
       <c r="C39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D39" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -3018,8 +3318,11 @@
       <c r="C40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D40" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -3029,8 +3332,11 @@
       <c r="C41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D41" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -3040,8 +3346,11 @@
       <c r="C42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D42" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -3051,8 +3360,11 @@
       <c r="C43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D43" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -3062,8 +3374,11 @@
       <c r="C44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D44" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -3073,8 +3388,11 @@
       <c r="C45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D45" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -3084,8 +3402,11 @@
       <c r="C46" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D46" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -3095,8 +3416,11 @@
       <c r="C47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D47" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -3106,8 +3430,11 @@
       <c r="C48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D48" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -3117,8 +3444,11 @@
       <c r="C49" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D49" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -3127,6 +3457,9 @@
       </c>
       <c r="C50" s="1">
         <v>1</v>
+      </c>
+      <c r="D50" s="2">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
